--- a/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
+++ b/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Mother Board\Project Outputs for Mother Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C051749-0559-4683-8085-1BDDB7D0F82C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69C718C-C529-41B5-8E7E-3D52306476B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,11 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>TCAN334DR</t>
+  </si>
+  <si>
     <t>Cap</t>
   </si>
   <si>
@@ -69,27 +72,21 @@
     <t>PNP</t>
   </si>
   <si>
-    <t>SN65HVD1050D</t>
-  </si>
-  <si>
-    <t>SN74LVC1T45DBVR</t>
-  </si>
-  <si>
     <t>TMP235A2DBZR</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>No Description Available</t>
+  </si>
+  <si>
     <t>Capacitor</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>No Description Available</t>
-  </si>
-  <si>
     <t>Header, 5-Pin</t>
   </si>
   <si>
@@ -102,12 +99,6 @@
     <t>PNP Bipolar Transistor</t>
   </si>
   <si>
-    <t>High-Speed EMC Optimized CAN Transceiver, 70 mA, 5 V, -40 to 125 degC, 8-pin SOIC (D), Green (RoHS &amp; no Sb/Br)</t>
-  </si>
-  <si>
-    <t>Single-Bit Dual-Supply Bus Transceiver with Configurable Voltage Translation and 3-State Outputs, DBV0006A, LARGE T&amp;R</t>
-  </si>
-  <si>
     <t>LOW-POWER HIGH-ACCURACY ANALOG O</t>
   </si>
   <si>
@@ -123,7 +114,7 @@
     <t>CR0603-JW-331ELF</t>
   </si>
   <si>
-    <t>C0603C104M4RACTU</t>
+    <t>CL10B104KA8NNNC</t>
   </si>
   <si>
     <t>RMCF0603FT60R4</t>
@@ -168,6 +159,9 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>D0008A_N</t>
+  </si>
+  <si>
     <t>1608[0603]</t>
   </si>
   <si>
@@ -187,12 +181,6 @@
   </si>
   <si>
     <t>SOT-23B_N</t>
-  </si>
-  <si>
-    <t>D0008A_N</t>
-  </si>
-  <si>
-    <t>DBV0006A_L</t>
   </si>
   <si>
     <t>FP-DBZ0003A-MFG</t>
@@ -610,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -623,25 +611,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -649,25 +637,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>4.3900000000000002E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H2">
-        <v>4.3900000000000002E-2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -675,77 +663,77 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>470</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
       </c>
       <c r="G3">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="G4">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H4">
-        <v>5.3999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>330</v>
       </c>
       <c r="G5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H5">
-        <v>0.159</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,51 +741,51 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
       </c>
       <c r="G6">
-        <v>2.4799999999999999E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="H6">
-        <v>4.9599999999999998E-2</v>
+        <v>0.77380000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>3.78E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="H7">
-        <v>0.1134</v>
+        <v>9.9199999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -805,77 +793,77 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G8">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="H8">
-        <v>0.18</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G9">
-        <v>0.16350000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H9">
-        <v>0.16350000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.16350000000000001</v>
       </c>
       <c r="H10">
-        <v>0.02</v>
+        <v>0.16350000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -883,51 +871,51 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H11">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G12">
-        <v>2.0490000000000001E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="H12">
-        <v>0.20485</v>
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -935,51 +923,51 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G13">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H13">
-        <v>7.1999999999999995E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G14">
-        <v>4.9000000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H14">
-        <v>9.8000000000000004E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -987,25 +975,25 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
       </c>
       <c r="G15">
-        <v>4.0000000000000001E-3</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H15">
-        <v>8.0000000000000002E-3</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1013,22 +1001,25 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2301</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H16">
-        <v>0.2301</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,56 +1027,56 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>0.2301</v>
+      </c>
+      <c r="H17">
+        <v>0.2301</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>9.11</v>
-      </c>
-      <c r="H18">
-        <v>36.44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>2.78</v>
+        <v>9.11</v>
       </c>
       <c r="H19">
-        <v>2.78</v>
+        <v>36.44</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1102,33 +1093,36 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
       <c r="H20">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G21">
-        <v>1.0900000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="H21">
-        <v>13.08</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1136,42 +1130,39 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G22">
-        <v>1.1200000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H22">
-        <v>1.1200000000000001</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>0.42499999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H23">
-        <v>4.25</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1179,22 +1170,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G24">
-        <v>1.29</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="H24">
-        <v>1.29</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1202,44 +1193,21 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G25">
-        <v>0.15035000000000001</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="H25">
-        <v>0.30070000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26">
-        <v>0.75839999999999996</v>
-      </c>
-      <c r="H26">
         <v>0.75839999999999996</v>
       </c>
     </row>

--- a/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
+++ b/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Mother Board\Project Outputs for Mother Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69C718C-C529-41B5-8E7E-3D52306476B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06AE1953-B1EC-4581-842D-8F9141759586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,15 @@
     <t>Res1</t>
   </si>
   <si>
+    <t>B4B-XH-A (LF)(SN)</t>
+  </si>
+  <si>
     <t>D5V0L2B3W-7</t>
   </si>
   <si>
+    <t>DX07S024WJ3R400</t>
+  </si>
+  <si>
     <t>Header 5</t>
   </si>
   <si>
@@ -147,6 +153,9 @@
     <t>RC0603JR-070RL</t>
   </si>
   <si>
+    <t>B4B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
     <t>MP5087GG-Z</t>
   </si>
   <si>
@@ -168,7 +177,13 @@
     <t>6-0805_M</t>
   </si>
   <si>
+    <t>CONN_B4B-XH-A (LF)(SN)_JST</t>
+  </si>
+  <si>
     <t>SOT-323_DIO</t>
+  </si>
+  <si>
+    <t>CONN_DX07S024WJ1R350_JAE</t>
   </si>
   <si>
     <t>HDR1X5</t>
@@ -598,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -611,25 +626,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -637,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -646,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>2.2999999999999998</v>
@@ -663,19 +678,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>4.3900000000000002E-2</v>
@@ -689,25 +704,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>470</v>
       </c>
       <c r="G4">
-        <v>4.0000000000000001E-3</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H4">
-        <v>4.0000000000000001E-3</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -715,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>330</v>
       </c>
       <c r="G5">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="H5">
-        <v>5.3999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -741,25 +756,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>1.46E-2</v>
       </c>
       <c r="H6">
-        <v>0.77380000000000004</v>
+        <v>0.81759999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,16 +782,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -793,19 +808,19 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>3.7600000000000001E-2</v>
@@ -819,25 +834,25 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H9">
-        <v>0.18</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -845,19 +860,19 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>0.16350000000000001</v>
@@ -871,19 +886,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11">
         <v>5.0000000000000001E-3</v>
@@ -897,19 +912,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>9.5899999999999999E-2</v>
@@ -923,25 +938,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G13">
-        <v>6.0000000000000001E-3</v>
+        <v>2.163E-2</v>
       </c>
       <c r="H13">
-        <v>3.5999999999999997E-2</v>
+        <v>0.21628</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,25 +964,25 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G14">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H14">
-        <v>7.1999999999999995E-2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,25 +990,25 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G15">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="H15">
-        <v>0.14699999999999999</v>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,25 +1016,25 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="H16">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5800000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,22 +1042,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>0.2301</v>
+        <v>0.21</v>
       </c>
       <c r="H17">
-        <v>0.2301</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1050,33 +1065,45 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <v>0.2301</v>
+      </c>
+      <c r="H18">
+        <v>0.2301</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G19">
-        <v>9.11</v>
+        <v>2.11</v>
       </c>
       <c r="H19">
-        <v>36.44</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1084,71 +1111,65 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20">
-        <v>2.78</v>
-      </c>
-      <c r="H20">
-        <v>2.78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>1.78</v>
+        <v>9.11</v>
       </c>
       <c r="H21">
-        <v>1.78</v>
+        <v>36.44</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G22">
-        <v>1.0900000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H22">
-        <v>13.08</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
@@ -1156,45 +1177,39 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G23">
-        <v>1.1200000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="H23">
-        <v>1.1200000000000001</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>0.42499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H24">
-        <v>4.25</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -1202,12 +1217,58 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G25">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H26">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27">
         <v>0.75839999999999996</v>
       </c>
-      <c r="H25">
+      <c r="H27">
         <v>0.75839999999999996</v>
       </c>
     </row>

--- a/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
+++ b/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Mother Board\Project Outputs for Mother Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06AE1953-B1EC-4581-842D-8F9141759586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C81F4BC-5D35-4B90-A3C6-B17595C92106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,50 +34,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>B4B-XH-A (LF)(SN)</t>
+  </si>
+  <si>
+    <t>Header 5</t>
+  </si>
+  <si>
+    <t>D5V0L2B3W-7</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>DX07S024WJ3R400</t>
+  </si>
+  <si>
+    <t>MCP2515-I/SO</t>
+  </si>
+  <si>
+    <t>PIC16F15375-I/MV</t>
+  </si>
+  <si>
+    <t>MP5087GG</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>HSEC8-120-01-L-PV-4-1</t>
+  </si>
+  <si>
+    <t>Res1</t>
+  </si>
+  <si>
+    <t>LSM6DSMTR</t>
+  </si>
+  <si>
     <t>TCAN334DR</t>
   </si>
   <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>Res1</t>
-  </si>
-  <si>
-    <t>B4B-XH-A (LF)(SN)</t>
-  </si>
-  <si>
-    <t>D5V0L2B3W-7</t>
-  </si>
-  <si>
-    <t>DX07S024WJ3R400</t>
-  </si>
-  <si>
-    <t>Header 5</t>
-  </si>
-  <si>
-    <t>HSEC8-120-01-L-PV-4-1</t>
-  </si>
-  <si>
-    <t>LSM6DSMTR</t>
-  </si>
-  <si>
-    <t>MCP2515-I/SO</t>
-  </si>
-  <si>
-    <t>MP5087GG</t>
-  </si>
-  <si>
-    <t>PIC16F15375-I/MV</t>
-  </si>
-  <si>
-    <t>PNP</t>
-  </si>
-  <si>
     <t>TMP235A2DBZR</t>
   </si>
   <si>
@@ -87,79 +87,82 @@
     <t>No Description Available</t>
   </si>
   <si>
+    <t>Header, 5-Pin</t>
+  </si>
+  <si>
+    <t>PNP Bipolar Transistor</t>
+  </si>
+  <si>
+    <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
+  </si>
+  <si>
     <t>Capacitor</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>Header, 5-Pin</t>
-  </si>
-  <si>
     <t>IMU ACCEL/GYRO I2C/SPI 14LGA</t>
   </si>
   <si>
-    <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
-  </si>
-  <si>
-    <t>PNP Bipolar Transistor</t>
-  </si>
-  <si>
     <t>LOW-POWER HIGH-ACCURACY ANALOG O</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
+    <t>ZXTP25020CFFTA</t>
+  </si>
+  <si>
+    <t>MP5087GG-Z</t>
+  </si>
+  <si>
+    <t>GRM21BR61E106KA73K</t>
+  </si>
+  <si>
+    <t>GRM1885C1H102JA01D</t>
+  </si>
+  <si>
+    <t>GRM155R71H104KE14J</t>
+  </si>
+  <si>
+    <t>GCM155R71H153KA55D</t>
+  </si>
+  <si>
+    <t>CL10B104KA8NNNC</t>
+  </si>
+  <si>
+    <t>CL10B103KB8NNNC</t>
+  </si>
+  <si>
+    <t>RMCF0402FT13K7</t>
+  </si>
+  <si>
+    <t>RMCF0402FT60R4</t>
+  </si>
+  <si>
+    <t>UMK105B7472KV-F</t>
+  </si>
+  <si>
     <t>CC0603KRX7R9BB681</t>
   </si>
   <si>
-    <t>RC0603JR-07470RL</t>
-  </si>
-  <si>
-    <t>CR0603-JW-331ELF</t>
-  </si>
-  <si>
-    <t>CL10B104KA8NNNC</t>
-  </si>
-  <si>
-    <t>RMCF0603FT60R4</t>
-  </si>
-  <si>
-    <t>CL10B153KB8NNNC</t>
-  </si>
-  <si>
-    <t>RMCF0603FT13K7</t>
-  </si>
-  <si>
-    <t>GRM21BR61E106KA73K</t>
-  </si>
-  <si>
-    <t>CL10B103KB8NNNC</t>
-  </si>
-  <si>
-    <t>RC0603JR-0710KL</t>
-  </si>
-  <si>
-    <t>0603B472K500CT</t>
-  </si>
-  <si>
-    <t>RC0603JR07-4K7L</t>
-  </si>
-  <si>
-    <t>GRM1885C1H102JA01D</t>
-  </si>
-  <si>
-    <t>RC0603JR-070RL</t>
-  </si>
-  <si>
-    <t>B4B-XH-A(LF)(SN)</t>
-  </si>
-  <si>
-    <t>MP5087GG-Z</t>
-  </si>
-  <si>
-    <t>ZXTP25020CFFTA</t>
+    <t>CC0402KRX7R7BB103</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710KL</t>
+  </si>
+  <si>
+    <t>RC0402JR-074K7L</t>
+  </si>
+  <si>
+    <t>RC0402JR-070RL</t>
+  </si>
+  <si>
+    <t>RC0402FR-07330RL</t>
+  </si>
+  <si>
+    <t>RC0402FR-07470RL</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -168,70 +171,73 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>CONN_B4B-XH-A (LF)(SN)_JST</t>
+  </si>
+  <si>
+    <t>HDR1X5</t>
+  </si>
+  <si>
+    <t>SOT-323_DIO</t>
+  </si>
+  <si>
+    <t>SOT-23B_N</t>
+  </si>
+  <si>
+    <t>CONN_DX07S024WJ1R350_JAE</t>
+  </si>
+  <si>
+    <t>SOIC-SO18_L</t>
+  </si>
+  <si>
+    <t>6-0805_M</t>
+  </si>
+  <si>
+    <t>1608[0603]</t>
+  </si>
+  <si>
+    <t>0402-A</t>
+  </si>
+  <si>
+    <t>FP-LGA-14L-DM00249496-MFG</t>
+  </si>
+  <si>
     <t>D0008A_N</t>
   </si>
   <si>
-    <t>1608[0603]</t>
-  </si>
-  <si>
-    <t>6-0805_M</t>
-  </si>
-  <si>
-    <t>CONN_B4B-XH-A (LF)(SN)_JST</t>
-  </si>
-  <si>
-    <t>SOT-323_DIO</t>
-  </si>
-  <si>
-    <t>CONN_DX07S024WJ1R350_JAE</t>
-  </si>
-  <si>
-    <t>HDR1X5</t>
-  </si>
-  <si>
-    <t>FP-LGA-14L-DM00249496-MFG</t>
-  </si>
-  <si>
-    <t>SOIC-SO18_L</t>
-  </si>
-  <si>
-    <t>SOT-23B_N</t>
-  </si>
-  <si>
     <t>FP-DBZ0003A-MFG</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>15nF</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>13.7k</t>
+  </si>
+  <si>
+    <t>4.7nF</t>
+  </si>
+  <si>
     <t>680pF</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>15nF</t>
-  </si>
-  <si>
-    <t>13.7k</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>4.7nF</t>
-  </si>
-  <si>
     <t>4.7k</t>
-  </si>
-  <si>
-    <t>1nF</t>
   </si>
   <si>
     <t>Supplier Unit Price 1</t>
@@ -613,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -632,19 +638,19 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -654,23 +660,11 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H2">
-        <v>2.2999999999999998</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -680,23 +674,11 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="H3">
-        <v>4.3900000000000002E-2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -704,474 +686,462 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>470</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>9.4E-2</v>
+        <v>0.2301</v>
       </c>
       <c r="H4">
-        <v>9.4E-2</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>330</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>2.8E-3</v>
+        <v>0.43530000000000002</v>
       </c>
       <c r="H5">
-        <v>7.0000000000000007E-2</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>1.46E-2</v>
+        <v>2.11</v>
       </c>
       <c r="H6">
-        <v>0.81759999999999999</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>2.4799999999999999E-2</v>
+        <v>1.79</v>
       </c>
       <c r="H7">
-        <v>9.9199999999999997E-2</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>3.7600000000000001E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H8">
-        <v>0.1128</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G9">
-        <v>1.4999999999999999E-2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H9">
-        <v>0.19500000000000001</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10">
-        <v>0.16350000000000001</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="H10">
-        <v>0.16350000000000001</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11">
-        <v>5.0000000000000001E-3</v>
+        <v>1.44E-2</v>
       </c>
       <c r="H11">
-        <v>0.02</v>
+        <v>4.3200000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12">
-        <v>9.5899999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H12">
-        <v>9.5899999999999999E-2</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13">
-        <v>2.163E-2</v>
-      </c>
-      <c r="H13">
-        <v>0.21628</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G14">
-        <v>1.4999999999999999E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H14">
-        <v>0.27</v>
+        <v>6.1600000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>4.8300000000000003E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H15">
-        <v>0.1449</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>1.5800000000000002E-2</v>
+        <v>9.11</v>
       </c>
       <c r="H16">
-        <v>1.5800000000000002E-2</v>
+        <v>36.44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
       </c>
       <c r="G17">
-        <v>0.21</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H17">
-        <v>0.21</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>0.2301</v>
+        <v>2.23E-2</v>
       </c>
       <c r="H18">
-        <v>0.2301</v>
+        <v>8.9200000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G19">
-        <v>2.11</v>
+        <v>2.78</v>
       </c>
       <c r="H19">
-        <v>2.11</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
       </c>
       <c r="G21">
-        <v>9.11</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H21">
-        <v>36.44</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G22">
-        <v>2.9</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="H22">
-        <v>2.9</v>
+        <v>0.75839999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1179,97 +1149,170 @@
       <c r="E23" t="s">
         <v>52</v>
       </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
       <c r="G23">
-        <v>1.71</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="H23">
-        <v>1.71</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
       </c>
       <c r="G24">
-        <v>1.0900000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H24">
-        <v>14.17</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
       </c>
       <c r="G25">
-        <v>1.1200000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="H25">
-        <v>1.1200000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>53</v>
       </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
       <c r="G26">
-        <v>0.42499999999999999</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H26">
-        <v>4.25</v>
+        <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.75839999999999996</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H27">
-        <v>0.75839999999999996</v>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28">
+        <v>330</v>
+      </c>
+      <c r="G28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29">
+        <v>470</v>
+      </c>
+      <c r="G29">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H29">
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
+++ b/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Mother Board\Project Outputs for Mother Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C81F4BC-5D35-4B90-A3C6-B17595C92106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C39FEB1A-58A8-4C97-8E18-A3D164DA9FCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>ZXTP25020CFFTA</t>
+  </si>
+  <si>
+    <t>PIC16F15375-E/MV</t>
   </si>
   <si>
     <t>MP5087GG-Z</t>
@@ -638,19 +641,19 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -664,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -695,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>0.2301</v>
@@ -718,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>0.43530000000000002</v>
+        <v>0.43819999999999998</v>
       </c>
       <c r="H5">
-        <v>4.3499999999999996</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -741,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2.11</v>
@@ -764,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>1.79</v>
@@ -778,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -787,10 +790,10 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>1.1000000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="H8">
-        <v>1.1000000000000001</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,13 +801,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>1.0900000000000001</v>
@@ -821,16 +824,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>7.3700000000000002E-2</v>
@@ -847,22 +850,22 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>1.44E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H11">
-        <v>4.3200000000000002E-2</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -873,16 +876,16 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>2.1999999999999999E-2</v>
@@ -899,16 +902,16 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -919,16 +922,16 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>7.7000000000000002E-3</v>
@@ -945,16 +948,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>5.0000000000000001E-3</v>
@@ -991,16 +994,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G17">
         <v>1.2999999999999999E-2</v>
@@ -1017,13 +1020,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>60</v>
@@ -1049,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>2.78</v>
@@ -1066,16 +1069,16 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20">
         <v>2.1000000000000001E-2</v>
@@ -1098,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21">
         <v>2.2999999999999998</v>
@@ -1124,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22">
         <v>0.75839999999999996</v>
@@ -1141,16 +1144,16 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23">
         <v>1.0699999999999999E-2</v>
@@ -1167,16 +1170,16 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24">
         <v>3.0000000000000001E-3</v>
@@ -1193,16 +1196,16 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25">
         <v>5.8999999999999997E-2</v>
@@ -1219,16 +1222,16 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26">
         <v>8.9999999999999998E-4</v>
@@ -1245,13 +1248,13 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1271,13 +1274,13 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28">
         <v>330</v>
@@ -1297,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>470</v>

--- a/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
+++ b/Mother Board/Project Outputs for Mother Board/Mother Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Mother Board\Project Outputs for Mother Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06AE1953-B1EC-4581-842D-8F9141759586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C39FEB1A-58A8-4C97-8E18-A3D164DA9FCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,50 +34,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>B4B-XH-A (LF)(SN)</t>
+  </si>
+  <si>
+    <t>Header 5</t>
+  </si>
+  <si>
+    <t>D5V0L2B3W-7</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>DX07S024WJ3R400</t>
+  </si>
+  <si>
+    <t>MCP2515-I/SO</t>
+  </si>
+  <si>
+    <t>PIC16F15375-I/MV</t>
+  </si>
+  <si>
+    <t>MP5087GG</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>HSEC8-120-01-L-PV-4-1</t>
+  </si>
+  <si>
+    <t>Res1</t>
+  </si>
+  <si>
+    <t>LSM6DSMTR</t>
+  </si>
+  <si>
     <t>TCAN334DR</t>
   </si>
   <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>Res1</t>
-  </si>
-  <si>
-    <t>B4B-XH-A (LF)(SN)</t>
-  </si>
-  <si>
-    <t>D5V0L2B3W-7</t>
-  </si>
-  <si>
-    <t>DX07S024WJ3R400</t>
-  </si>
-  <si>
-    <t>Header 5</t>
-  </si>
-  <si>
-    <t>HSEC8-120-01-L-PV-4-1</t>
-  </si>
-  <si>
-    <t>LSM6DSMTR</t>
-  </si>
-  <si>
-    <t>MCP2515-I/SO</t>
-  </si>
-  <si>
-    <t>MP5087GG</t>
-  </si>
-  <si>
-    <t>PIC16F15375-I/MV</t>
-  </si>
-  <si>
-    <t>PNP</t>
-  </si>
-  <si>
     <t>TMP235A2DBZR</t>
   </si>
   <si>
@@ -87,79 +87,85 @@
     <t>No Description Available</t>
   </si>
   <si>
+    <t>Header, 5-Pin</t>
+  </si>
+  <si>
+    <t>PNP Bipolar Transistor</t>
+  </si>
+  <si>
+    <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
+  </si>
+  <si>
     <t>Capacitor</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>Header, 5-Pin</t>
-  </si>
-  <si>
     <t>IMU ACCEL/GYRO I2C/SPI 14LGA</t>
   </si>
   <si>
-    <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
-  </si>
-  <si>
-    <t>PNP Bipolar Transistor</t>
-  </si>
-  <si>
     <t>LOW-POWER HIGH-ACCURACY ANALOG O</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
+    <t>ZXTP25020CFFTA</t>
+  </si>
+  <si>
+    <t>PIC16F15375-E/MV</t>
+  </si>
+  <si>
+    <t>MP5087GG-Z</t>
+  </si>
+  <si>
+    <t>GRM21BR61E106KA73K</t>
+  </si>
+  <si>
+    <t>GRM1885C1H102JA01D</t>
+  </si>
+  <si>
+    <t>GRM155R71H104KE14J</t>
+  </si>
+  <si>
+    <t>GCM155R71H153KA55D</t>
+  </si>
+  <si>
+    <t>CL10B104KA8NNNC</t>
+  </si>
+  <si>
+    <t>CL10B103KB8NNNC</t>
+  </si>
+  <si>
+    <t>RMCF0402FT13K7</t>
+  </si>
+  <si>
+    <t>RMCF0402FT60R4</t>
+  </si>
+  <si>
+    <t>UMK105B7472KV-F</t>
+  </si>
+  <si>
     <t>CC0603KRX7R9BB681</t>
   </si>
   <si>
-    <t>RC0603JR-07470RL</t>
-  </si>
-  <si>
-    <t>CR0603-JW-331ELF</t>
-  </si>
-  <si>
-    <t>CL10B104KA8NNNC</t>
-  </si>
-  <si>
-    <t>RMCF0603FT60R4</t>
-  </si>
-  <si>
-    <t>CL10B153KB8NNNC</t>
-  </si>
-  <si>
-    <t>RMCF0603FT13K7</t>
-  </si>
-  <si>
-    <t>GRM21BR61E106KA73K</t>
-  </si>
-  <si>
-    <t>CL10B103KB8NNNC</t>
-  </si>
-  <si>
-    <t>RC0603JR-0710KL</t>
-  </si>
-  <si>
-    <t>0603B472K500CT</t>
-  </si>
-  <si>
-    <t>RC0603JR07-4K7L</t>
-  </si>
-  <si>
-    <t>GRM1885C1H102JA01D</t>
-  </si>
-  <si>
-    <t>RC0603JR-070RL</t>
-  </si>
-  <si>
-    <t>B4B-XH-A(LF)(SN)</t>
-  </si>
-  <si>
-    <t>MP5087GG-Z</t>
-  </si>
-  <si>
-    <t>ZXTP25020CFFTA</t>
+    <t>CC0402KRX7R7BB103</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710KL</t>
+  </si>
+  <si>
+    <t>RC0402JR-074K7L</t>
+  </si>
+  <si>
+    <t>RC0402JR-070RL</t>
+  </si>
+  <si>
+    <t>RC0402FR-07330RL</t>
+  </si>
+  <si>
+    <t>RC0402FR-07470RL</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -168,70 +174,73 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>CONN_B4B-XH-A (LF)(SN)_JST</t>
+  </si>
+  <si>
+    <t>HDR1X5</t>
+  </si>
+  <si>
+    <t>SOT-323_DIO</t>
+  </si>
+  <si>
+    <t>SOT-23B_N</t>
+  </si>
+  <si>
+    <t>CONN_DX07S024WJ1R350_JAE</t>
+  </si>
+  <si>
+    <t>SOIC-SO18_L</t>
+  </si>
+  <si>
+    <t>6-0805_M</t>
+  </si>
+  <si>
+    <t>1608[0603]</t>
+  </si>
+  <si>
+    <t>0402-A</t>
+  </si>
+  <si>
+    <t>FP-LGA-14L-DM00249496-MFG</t>
+  </si>
+  <si>
     <t>D0008A_N</t>
   </si>
   <si>
-    <t>1608[0603]</t>
-  </si>
-  <si>
-    <t>6-0805_M</t>
-  </si>
-  <si>
-    <t>CONN_B4B-XH-A (LF)(SN)_JST</t>
-  </si>
-  <si>
-    <t>SOT-323_DIO</t>
-  </si>
-  <si>
-    <t>CONN_DX07S024WJ1R350_JAE</t>
-  </si>
-  <si>
-    <t>HDR1X5</t>
-  </si>
-  <si>
-    <t>FP-LGA-14L-DM00249496-MFG</t>
-  </si>
-  <si>
-    <t>SOIC-SO18_L</t>
-  </si>
-  <si>
-    <t>SOT-23B_N</t>
-  </si>
-  <si>
     <t>FP-DBZ0003A-MFG</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>15nF</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>13.7k</t>
+  </si>
+  <si>
+    <t>4.7nF</t>
+  </si>
+  <si>
     <t>680pF</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>15nF</t>
-  </si>
-  <si>
-    <t>13.7k</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>4.7nF</t>
-  </si>
-  <si>
     <t>4.7k</t>
-  </si>
-  <si>
-    <t>1nF</t>
   </si>
   <si>
     <t>Supplier Unit Price 1</t>
@@ -613,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -632,19 +641,19 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -654,23 +663,11 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H2">
-        <v>2.2999999999999998</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -680,23 +677,11 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="H3">
-        <v>4.3900000000000002E-2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -704,560 +689,566 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>470</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>9.4E-2</v>
+        <v>0.2301</v>
       </c>
       <c r="H4">
-        <v>9.4E-2</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>2.8E-3</v>
+        <v>0.43819999999999998</v>
       </c>
       <c r="H5">
-        <v>7.0000000000000007E-2</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>1.46E-2</v>
+        <v>2.11</v>
       </c>
       <c r="H6">
-        <v>0.81759999999999999</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G7">
-        <v>2.4799999999999999E-2</v>
+        <v>1.79</v>
       </c>
       <c r="H7">
-        <v>9.9199999999999997E-2</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>3.7600000000000001E-2</v>
+        <v>1.37</v>
       </c>
       <c r="H8">
-        <v>0.1128</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>1.4999999999999999E-2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H9">
-        <v>0.19500000000000001</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10">
-        <v>0.16350000000000001</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="H10">
-        <v>0.16350000000000001</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>5.0000000000000001E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H11">
-        <v>0.02</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12">
-        <v>9.5899999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H12">
-        <v>9.5899999999999999E-2</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13">
-        <v>2.163E-2</v>
-      </c>
-      <c r="H13">
-        <v>0.21628</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G14">
-        <v>1.4999999999999999E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H14">
-        <v>0.27</v>
+        <v>6.1600000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15">
-        <v>4.8300000000000003E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H15">
-        <v>0.1449</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>1.5800000000000002E-2</v>
+        <v>9.11</v>
       </c>
       <c r="H16">
-        <v>1.5800000000000002E-2</v>
+        <v>36.44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>0.21</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H17">
-        <v>0.21</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>0.2301</v>
+        <v>2.23E-2</v>
       </c>
       <c r="H18">
-        <v>0.2301</v>
+        <v>8.9200000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G19">
-        <v>2.11</v>
+        <v>2.78</v>
       </c>
       <c r="H19">
-        <v>2.11</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
       </c>
       <c r="G21">
-        <v>9.11</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H21">
-        <v>36.44</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>2.9</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="H22">
-        <v>2.9</v>
+        <v>0.75839999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
       </c>
       <c r="G23">
-        <v>1.71</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="H23">
-        <v>1.71</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
       </c>
       <c r="G24">
-        <v>1.0900000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H24">
-        <v>14.17</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
       </c>
       <c r="G25">
-        <v>1.1200000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="H25">
-        <v>1.1200000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
       </c>
       <c r="G26">
-        <v>0.42499999999999999</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H26">
-        <v>4.25</v>
+        <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1265,11 +1256,66 @@
       <c r="E27" t="s">
         <v>54</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
       <c r="G27">
-        <v>0.75839999999999996</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H27">
-        <v>0.75839999999999996</v>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <v>330</v>
+      </c>
+      <c r="G28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29">
+        <v>470</v>
+      </c>
+      <c r="G29">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H29">
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
   </sheetData>
